--- a/biology/Botanique/Xerocomus_pruinatus/Xerocomus_pruinatus.xlsx
+++ b/biology/Botanique/Xerocomus_pruinatus/Xerocomus_pruinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xerocomellus pruinatus
-Xerocomellus pruinatus[1], le Bolet pruineux, anciennement Boletus pruinatus, est une espèce de champignons de la famille des Boletaceae du genre Xerocomellus. Comestible moyen, il est caractérisé par son chapeau pruineux et sa chair plus au moins de couleur uniforme à la coupe, lentement et légèrement bleuissante. 
+Xerocomellus pruinatus, le Bolet pruineux, anciennement Boletus pruinatus, est une espèce de champignons de la famille des Boletaceae du genre Xerocomellus. Comestible moyen, il est caractérisé par son chapeau pruineux et sa chair plus au moins de couleur uniforme à la coupe, lentement et légèrement bleuissante. 
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus pruinatus (Fr.) Šutara[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus pruinatus Fr.[2].
-Synonymes
-Xerocomellus pruinatus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus pruinatus (Fr.) Šutara. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus pruinatus Fr..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xerocomellus pruinatus a pour synonymes :
 Boletellus fragilipes (C.Martin) Kuthan
 Boletellus pruinatus f. luteocarnosus Klofac &amp; Krisai
 Boletellus pruinatus var. pascuus (Pers.) Klofac &amp; Krisai
@@ -534,47 +583,154 @@
 Xerocomus pascuus (Pers.) Bon
 Xerocomus pruinatus var. luteocarnosus (Klofac &amp; Krisai) Anon.
 Xerocomus pruinatus (Fr.) Quél.
-Phylogénie
-Il a été transféré vers le nouveau genre Xerocomellus décrit par le mycologue tchèque Josef Šutara en 2008.
-Étymologie
-L'épithète pruinatus est en référence à la pruine qui recouvre typiquement son chapeau.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Xerocomus_pruinatus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Xerocomus_pruinatus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été transféré vers le nouveau genre Xerocomellus décrit par le mycologue tchèque Josef Šutara en 2008.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète pruinatus est en référence à la pruine qui recouvre typiquement son chapeau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Xerocomellus pruinatus sont les suivantes :
-Son chapeau mesure de 4 à 12 cm. Il est sec et même feutré[3].De couleur brun sombre, brun noirâtre à brun pourpré sombre, généralement pruineux[4].
-L'hyménophore présente des tubes jaune plus au moins vif puis jaune olivâtre. Ses pores sont concolores aux tubes[3].
-Son stipe mesure 3 à 10 cm x 1 à 3 cm, il est jaune vif au début puis rouge ou rouge-rose[3].
-Sa chair est jaune vif, palissant un peu dans l'âge[3], non bleuissante ou parfois faiblement et lentement surtout dans le stipe[4]. Sa saveur est douce[5] et son odeur est variable, souvent fortement acidulée chez les jeunes[3].
-Caractéristiques microscopiques
-Ses spores mesurent 12,5 à 15,5 µm x 4,5 à 6 µm. Elles sont striées (stries difficiles à distinguer, voire impossibles en microscopie optique). Présence typique de larges hyphes amyloïdes à parois épaisses dans la chair de la base du stipe (mais parfois bien difficiles à dénicher, surtout sur de jeunes exemplaires)[4].
+Son chapeau mesure de 4 à 12 cm. Il est sec et même feutré.De couleur brun sombre, brun noirâtre à brun pourpré sombre, généralement pruineux.
+L'hyménophore présente des tubes jaune plus au moins vif puis jaune olivâtre. Ses pores sont concolores aux tubes.
+Son stipe mesure 3 à 10 cm x 1 à 3 cm, il est jaune vif au début puis rouge ou rouge-rose.
+Sa chair est jaune vif, palissant un peu dans l'âge, non bleuissante ou parfois faiblement et lentement surtout dans le stipe. Sa saveur est douce et son odeur est variable, souvent fortement acidulée chez les jeunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_pruinatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12,5 à 15,5 µm x 4,5 à 6 µm. Elles sont striées (stries difficiles à distinguer, voire impossibles en microscopie optique). Présence typique de larges hyphes amyloïdes à parois épaisses dans la chair de la base du stipe (mais parfois bien difficiles à dénicher, surtout sur de jeunes exemplaires).
 </t>
         </is>
       </c>
